--- a/libs/templates/check_list/arrangement_check_list.xlsx
+++ b/libs/templates/check_list/arrangement_check_list.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="14400" windowHeight="5115"/>
   </bookViews>
   <sheets>
     <sheet name="模版" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">模版!$A$1:$J$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">模版!$A$1:$J$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,380 +27,412 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
-  <si>
-    <t>安全级DCS（FirmSys）机柜安装图检查内容表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+  <si>
+    <t>安全级DCS（FirmSys）机柜布置图检查内容表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（ 030-GN-P-BP-G16-EMD-013 ）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目
+名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${unit}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${c_b}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>校核</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${r_b}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${i_s}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价标准</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>图纸
+说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称、文件编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称、文件编码填写正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称、项目编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称、项目编号填写正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任部分、适用范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任部分、适用范围填写正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写、校核、审核、批准人的姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写、校核、审核、批准人的姓名填写正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页眉页脚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页眉内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸名称正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页脚内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称、机组号、页码正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件修订信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版/升版日期，修改人的姓名及版本号，版本状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版/升版日期，修改人的姓名及版本号，版本状态填写正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改内容记录所有升版内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录文件名称与正文各清单名称一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件页码正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸
+内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜顺序图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜顺序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与电气厂房布置图一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜尺寸和编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与电气厂房布置图一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜视图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与机柜布置规范一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与子系统设备规格书和详细IO清单一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签内容信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部设备详细信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签尺寸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡件布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU机箱布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱数量与子系统设备规格书一致，机箱编号与机柜布置设计规范一致，CPU机箱内卡件布置与子系统设备规格书一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO机箱布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱数量与详细IO清单一致，机箱编号与机柜布置设计规范一致，IO机箱内卡件布置与详细IO清单一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调理机箱布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱数量与详细IO清单一致，机箱编号与机柜布置设计规范一致，调理机箱内卡件布置与详细IO清单一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合机箱布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱数量与子系统设备规格书一致，机箱编号与机柜布置设计规范一致，组合机箱内CPU部分卡件布置与子系统设备规格书一致，组合机箱内IO部分卡件布置与详细IO清单一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电转换机箱布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机箱数量与子系统设备规格书一致，机箱编号与机柜布置设计规范一致，光电转换机箱内卡件布置与子系统设备规格书一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板卡选型及布置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足《安全级DCS（FirmSys）机柜布置设计规范》要求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡件拨码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>（ 030-GN-P-BP-G16-EMD-159</t>
+      <t>C</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="7"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>/B</t>
+      <t>PU机箱拨码</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>满足《安全级DCS(FirmSys)</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="10"/>
+        <sz val="7"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>IO及通信清单</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
+        <sz val="7"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
+      <t>设计规范》要求</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>项目
-名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${unit}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${c_b}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>校核</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${r_b}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${i_s}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>图纸
-说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>封面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名称、文件编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名称、文件编码填写正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称、项目编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称、项目编号填写正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任部分、适用范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任部分、适用范围填写正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写、校核、审核、批准人的姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写、校核、审核、批准人的姓名填写正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页眉页脚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页眉内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸名称正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页脚内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称、机组号、页码正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件修订信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版/升版日期，修改人的姓名及版本号，版本状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版/升版日期，修改人的姓名及版本号，版本状态填写正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改内容记录所有升版内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录文件名称与正文各清单名称一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>页码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件页码正确</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸
-内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜并柜图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>与机柜布置图一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜尺寸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜长，宽，高尺寸及各部件定位尺寸与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输分柜标识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识位置与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电缆进线孔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电缆进线孔位置与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开门角度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜前后门开门角度与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜把手和锁的型号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜门把手、门锁及钥匙的型号，门把手的形状与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地脚螺栓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地脚螺栓尺寸、位置及数量与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>视图一致性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜并柜图正视图、左视图、后视图、俯视图一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜重量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜重量与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷漆颜色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>喷漆颜色与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装位置与电气厂房布置图一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全等级与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜连接螺栓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜连接螺栓与设计一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部线缆走线图</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部进线孔布置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶部进线孔布置与实际机柜一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电缆，信号种类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电缆，信号种类与接线图一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电缆颜色标识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电缆颜色标识与图例一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子排布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>端子排布与布置图一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>走线路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>走线路径与设计原则一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机柜俯视图、左侧剖视图、右侧剖视图一致</t>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O机箱拨码</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与详细IO清单一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合机箱拨码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU部分满足《安全级DCS(FirmSys)IO及通信清单设计规范》要求，IO部分与详细IO清单一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>环网通信板卡拨码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点拨码与子系统设备规格书一致，属性设置拨码与FirmSys板卡用户手册一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备接口板卡拨码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与详细IO清单和FirmSys产品用户手册一致</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电转换板卡跳线</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与子系统设备规格书和FirmSys产品用户手册一致</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +481,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
+    <t>10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -468,6 +500,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> -</t>
@@ -476,6 +509,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（不适用）。</t>
@@ -494,19 +528,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -516,16 +552,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -534,17 +570,20 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -556,31 +595,41 @@
       <b/>
       <sz val="5.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="7"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -757,209 +806,195 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1242,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV42"/>
+  <dimension ref="A1:IV45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="145" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -1535,11 +1570,11 @@
       <c r="I15" s="36"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="1:256" s="44" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:256" s="43" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="39" t="s">
@@ -1549,744 +1584,820 @@
         <v>48</v>
       </c>
       <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="29"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="43"/>
-      <c r="BC16" s="43"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="43"/>
-      <c r="BG16" s="43"/>
-      <c r="BH16" s="43"/>
-      <c r="BI16" s="43"/>
-      <c r="BJ16" s="43"/>
-      <c r="BK16" s="43"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="43"/>
-      <c r="BN16" s="43"/>
-      <c r="BO16" s="43"/>
-      <c r="BP16" s="43"/>
-      <c r="BQ16" s="43"/>
-      <c r="BR16" s="43"/>
-      <c r="BS16" s="43"/>
-      <c r="BT16" s="43"/>
-      <c r="BU16" s="43"/>
-      <c r="BV16" s="43"/>
-      <c r="BW16" s="43"/>
-      <c r="BX16" s="43"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="43"/>
-      <c r="CG16" s="43"/>
-      <c r="CH16" s="43"/>
-      <c r="CI16" s="43"/>
-      <c r="CJ16" s="43"/>
-      <c r="CK16" s="43"/>
-      <c r="CL16" s="43"/>
-      <c r="CM16" s="43"/>
-      <c r="CN16" s="43"/>
-      <c r="CO16" s="43"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="43"/>
-      <c r="CS16" s="43"/>
-      <c r="CT16" s="43"/>
-      <c r="CU16" s="43"/>
-      <c r="CV16" s="43"/>
-      <c r="CW16" s="43"/>
-      <c r="CX16" s="43"/>
-      <c r="CY16" s="43"/>
-      <c r="CZ16" s="43"/>
-      <c r="DA16" s="43"/>
-      <c r="DB16" s="43"/>
-      <c r="DC16" s="43"/>
-      <c r="DD16" s="43"/>
-      <c r="DE16" s="43"/>
-      <c r="DF16" s="43"/>
-      <c r="DG16" s="43"/>
-      <c r="DH16" s="43"/>
-      <c r="DI16" s="43"/>
-      <c r="DJ16" s="43"/>
-      <c r="DK16" s="43"/>
-      <c r="DL16" s="43"/>
-      <c r="DM16" s="43"/>
-      <c r="DN16" s="43"/>
-      <c r="DO16" s="43"/>
-      <c r="DP16" s="43"/>
-      <c r="DQ16" s="43"/>
-      <c r="DR16" s="43"/>
-      <c r="DS16" s="43"/>
-      <c r="DT16" s="43"/>
-      <c r="DU16" s="43"/>
-      <c r="DV16" s="43"/>
-      <c r="DW16" s="43"/>
-      <c r="DX16" s="43"/>
-      <c r="DY16" s="43"/>
-      <c r="DZ16" s="43"/>
-      <c r="EA16" s="43"/>
-      <c r="EB16" s="43"/>
-      <c r="EC16" s="43"/>
-      <c r="ED16" s="43"/>
-      <c r="EE16" s="43"/>
-      <c r="EF16" s="43"/>
-      <c r="EG16" s="43"/>
-      <c r="EH16" s="43"/>
-      <c r="EI16" s="43"/>
-      <c r="EJ16" s="43"/>
-      <c r="EK16" s="43"/>
-      <c r="EL16" s="43"/>
-      <c r="EM16" s="43"/>
-      <c r="EN16" s="43"/>
-      <c r="EO16" s="43"/>
-      <c r="EP16" s="43"/>
-      <c r="EQ16" s="43"/>
-      <c r="ER16" s="43"/>
-      <c r="ES16" s="43"/>
-      <c r="ET16" s="43"/>
-      <c r="EU16" s="43"/>
-      <c r="EV16" s="43"/>
-      <c r="EW16" s="43"/>
-      <c r="EX16" s="43"/>
-      <c r="EY16" s="43"/>
-      <c r="EZ16" s="43"/>
-      <c r="FA16" s="43"/>
-      <c r="FB16" s="43"/>
-      <c r="FC16" s="43"/>
-      <c r="FD16" s="43"/>
-      <c r="FE16" s="43"/>
-      <c r="FF16" s="43"/>
-      <c r="FG16" s="43"/>
-      <c r="FH16" s="43"/>
-      <c r="FI16" s="43"/>
-      <c r="FJ16" s="43"/>
-      <c r="FK16" s="43"/>
-      <c r="FL16" s="43"/>
-      <c r="FM16" s="43"/>
-      <c r="FN16" s="43"/>
-      <c r="FO16" s="43"/>
-      <c r="FP16" s="43"/>
-      <c r="FQ16" s="43"/>
-      <c r="FR16" s="43"/>
-      <c r="FS16" s="43"/>
-      <c r="FT16" s="43"/>
-      <c r="FU16" s="43"/>
-      <c r="FV16" s="43"/>
-      <c r="FW16" s="43"/>
-      <c r="FX16" s="43"/>
-      <c r="FY16" s="43"/>
-      <c r="FZ16" s="43"/>
-      <c r="GA16" s="43"/>
-      <c r="GB16" s="43"/>
-      <c r="GC16" s="43"/>
-      <c r="GD16" s="43"/>
-      <c r="GE16" s="43"/>
-      <c r="GF16" s="43"/>
-      <c r="GG16" s="43"/>
-      <c r="GH16" s="43"/>
-      <c r="GI16" s="43"/>
-      <c r="GJ16" s="43"/>
-      <c r="GK16" s="43"/>
-      <c r="GL16" s="43"/>
-      <c r="GM16" s="43"/>
-      <c r="GN16" s="43"/>
-      <c r="GO16" s="43"/>
-      <c r="GP16" s="43"/>
-      <c r="GQ16" s="43"/>
-      <c r="GR16" s="43"/>
-      <c r="GS16" s="43"/>
-      <c r="GT16" s="43"/>
-      <c r="GU16" s="43"/>
-      <c r="GV16" s="43"/>
-      <c r="GW16" s="43"/>
-      <c r="GX16" s="43"/>
-      <c r="GY16" s="43"/>
-      <c r="GZ16" s="43"/>
-      <c r="HA16" s="43"/>
-      <c r="HB16" s="43"/>
-      <c r="HC16" s="43"/>
-      <c r="HD16" s="43"/>
-      <c r="HE16" s="43"/>
-      <c r="HF16" s="43"/>
-      <c r="HG16" s="43"/>
-      <c r="HH16" s="43"/>
-      <c r="HI16" s="43"/>
-      <c r="HJ16" s="43"/>
-      <c r="HK16" s="43"/>
-      <c r="HL16" s="43"/>
-      <c r="HM16" s="43"/>
-      <c r="HN16" s="43"/>
-      <c r="HO16" s="43"/>
-      <c r="HP16" s="43"/>
-      <c r="HQ16" s="43"/>
-      <c r="HR16" s="43"/>
-      <c r="HS16" s="43"/>
-      <c r="HT16" s="43"/>
-      <c r="HU16" s="43"/>
-      <c r="HV16" s="43"/>
-      <c r="HW16" s="43"/>
-      <c r="HX16" s="43"/>
-      <c r="HY16" s="43"/>
-      <c r="HZ16" s="43"/>
-      <c r="IA16" s="43"/>
-      <c r="IB16" s="43"/>
-      <c r="IC16" s="43"/>
-      <c r="ID16" s="43"/>
-      <c r="IE16" s="43"/>
-      <c r="IF16" s="43"/>
-      <c r="IG16" s="43"/>
-      <c r="IH16" s="43"/>
-      <c r="II16" s="43"/>
-      <c r="IJ16" s="43"/>
-      <c r="IK16" s="43"/>
-      <c r="IL16" s="43"/>
-      <c r="IM16" s="43"/>
-      <c r="IN16" s="43"/>
-      <c r="IO16" s="43"/>
-      <c r="IP16" s="43"/>
-      <c r="IQ16" s="43"/>
-      <c r="IR16" s="43"/>
-      <c r="IS16" s="43"/>
-      <c r="IT16" s="43"/>
-      <c r="IU16" s="43"/>
-      <c r="IV16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="42"/>
+      <c r="BG16" s="42"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="42"/>
+      <c r="BM16" s="42"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="42"/>
+      <c r="BP16" s="42"/>
+      <c r="BQ16" s="42"/>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="42"/>
+      <c r="BT16" s="42"/>
+      <c r="BU16" s="42"/>
+      <c r="BV16" s="42"/>
+      <c r="BW16" s="42"/>
+      <c r="BX16" s="42"/>
+      <c r="BY16" s="42"/>
+      <c r="BZ16" s="42"/>
+      <c r="CA16" s="42"/>
+      <c r="CB16" s="42"/>
+      <c r="CC16" s="42"/>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="42"/>
+      <c r="CG16" s="42"/>
+      <c r="CH16" s="42"/>
+      <c r="CI16" s="42"/>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="42"/>
+      <c r="CL16" s="42"/>
+      <c r="CM16" s="42"/>
+      <c r="CN16" s="42"/>
+      <c r="CO16" s="42"/>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="42"/>
+      <c r="CR16" s="42"/>
+      <c r="CS16" s="42"/>
+      <c r="CT16" s="42"/>
+      <c r="CU16" s="42"/>
+      <c r="CV16" s="42"/>
+      <c r="CW16" s="42"/>
+      <c r="CX16" s="42"/>
+      <c r="CY16" s="42"/>
+      <c r="CZ16" s="42"/>
+      <c r="DA16" s="42"/>
+      <c r="DB16" s="42"/>
+      <c r="DC16" s="42"/>
+      <c r="DD16" s="42"/>
+      <c r="DE16" s="42"/>
+      <c r="DF16" s="42"/>
+      <c r="DG16" s="42"/>
+      <c r="DH16" s="42"/>
+      <c r="DI16" s="42"/>
+      <c r="DJ16" s="42"/>
+      <c r="DK16" s="42"/>
+      <c r="DL16" s="42"/>
+      <c r="DM16" s="42"/>
+      <c r="DN16" s="42"/>
+      <c r="DO16" s="42"/>
+      <c r="DP16" s="42"/>
+      <c r="DQ16" s="42"/>
+      <c r="DR16" s="42"/>
+      <c r="DS16" s="42"/>
+      <c r="DT16" s="42"/>
+      <c r="DU16" s="42"/>
+      <c r="DV16" s="42"/>
+      <c r="DW16" s="42"/>
+      <c r="DX16" s="42"/>
+      <c r="DY16" s="42"/>
+      <c r="DZ16" s="42"/>
+      <c r="EA16" s="42"/>
+      <c r="EB16" s="42"/>
+      <c r="EC16" s="42"/>
+      <c r="ED16" s="42"/>
+      <c r="EE16" s="42"/>
+      <c r="EF16" s="42"/>
+      <c r="EG16" s="42"/>
+      <c r="EH16" s="42"/>
+      <c r="EI16" s="42"/>
+      <c r="EJ16" s="42"/>
+      <c r="EK16" s="42"/>
+      <c r="EL16" s="42"/>
+      <c r="EM16" s="42"/>
+      <c r="EN16" s="42"/>
+      <c r="EO16" s="42"/>
+      <c r="EP16" s="42"/>
+      <c r="EQ16" s="42"/>
+      <c r="ER16" s="42"/>
+      <c r="ES16" s="42"/>
+      <c r="ET16" s="42"/>
+      <c r="EU16" s="42"/>
+      <c r="EV16" s="42"/>
+      <c r="EW16" s="42"/>
+      <c r="EX16" s="42"/>
+      <c r="EY16" s="42"/>
+      <c r="EZ16" s="42"/>
+      <c r="FA16" s="42"/>
+      <c r="FB16" s="42"/>
+      <c r="FC16" s="42"/>
+      <c r="FD16" s="42"/>
+      <c r="FE16" s="42"/>
+      <c r="FF16" s="42"/>
+      <c r="FG16" s="42"/>
+      <c r="FH16" s="42"/>
+      <c r="FI16" s="42"/>
+      <c r="FJ16" s="42"/>
+      <c r="FK16" s="42"/>
+      <c r="FL16" s="42"/>
+      <c r="FM16" s="42"/>
+      <c r="FN16" s="42"/>
+      <c r="FO16" s="42"/>
+      <c r="FP16" s="42"/>
+      <c r="FQ16" s="42"/>
+      <c r="FR16" s="42"/>
+      <c r="FS16" s="42"/>
+      <c r="FT16" s="42"/>
+      <c r="FU16" s="42"/>
+      <c r="FV16" s="42"/>
+      <c r="FW16" s="42"/>
+      <c r="FX16" s="42"/>
+      <c r="FY16" s="42"/>
+      <c r="FZ16" s="42"/>
+      <c r="GA16" s="42"/>
+      <c r="GB16" s="42"/>
+      <c r="GC16" s="42"/>
+      <c r="GD16" s="42"/>
+      <c r="GE16" s="42"/>
+      <c r="GF16" s="42"/>
+      <c r="GG16" s="42"/>
+      <c r="GH16" s="42"/>
+      <c r="GI16" s="42"/>
+      <c r="GJ16" s="42"/>
+      <c r="GK16" s="42"/>
+      <c r="GL16" s="42"/>
+      <c r="GM16" s="42"/>
+      <c r="GN16" s="42"/>
+      <c r="GO16" s="42"/>
+      <c r="GP16" s="42"/>
+      <c r="GQ16" s="42"/>
+      <c r="GR16" s="42"/>
+      <c r="GS16" s="42"/>
+      <c r="GT16" s="42"/>
+      <c r="GU16" s="42"/>
+      <c r="GV16" s="42"/>
+      <c r="GW16" s="42"/>
+      <c r="GX16" s="42"/>
+      <c r="GY16" s="42"/>
+      <c r="GZ16" s="42"/>
+      <c r="HA16" s="42"/>
+      <c r="HB16" s="42"/>
+      <c r="HC16" s="42"/>
+      <c r="HD16" s="42"/>
+      <c r="HE16" s="42"/>
+      <c r="HF16" s="42"/>
+      <c r="HG16" s="42"/>
+      <c r="HH16" s="42"/>
+      <c r="HI16" s="42"/>
+      <c r="HJ16" s="42"/>
+      <c r="HK16" s="42"/>
+      <c r="HL16" s="42"/>
+      <c r="HM16" s="42"/>
+      <c r="HN16" s="42"/>
+      <c r="HO16" s="42"/>
+      <c r="HP16" s="42"/>
+      <c r="HQ16" s="42"/>
+      <c r="HR16" s="42"/>
+      <c r="HS16" s="42"/>
+      <c r="HT16" s="42"/>
+      <c r="HU16" s="42"/>
+      <c r="HV16" s="42"/>
+      <c r="HW16" s="42"/>
+      <c r="HX16" s="42"/>
+      <c r="HY16" s="42"/>
+      <c r="HZ16" s="42"/>
+      <c r="IA16" s="42"/>
+      <c r="IB16" s="42"/>
+      <c r="IC16" s="42"/>
+      <c r="ID16" s="42"/>
+      <c r="IE16" s="42"/>
+      <c r="IF16" s="42"/>
+      <c r="IG16" s="42"/>
+      <c r="IH16" s="42"/>
+      <c r="II16" s="42"/>
+      <c r="IJ16" s="42"/>
+      <c r="IK16" s="42"/>
+      <c r="IL16" s="42"/>
+      <c r="IM16" s="42"/>
+      <c r="IN16" s="42"/>
+      <c r="IO16" s="42"/>
+      <c r="IP16" s="42"/>
+      <c r="IQ16" s="42"/>
+      <c r="IR16" s="42"/>
+      <c r="IS16" s="42"/>
+      <c r="IT16" s="42"/>
+      <c r="IU16" s="42"/>
+      <c r="IV16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="39"/>
       <c r="D17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="41"/>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="29"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="45" t="s">
+      <c r="B18" s="23">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
       <c r="I18" s="29"/>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="29"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="47" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
       <c r="I20" s="29"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="52" t="s">
+      <c r="B21" s="23">
+        <v>4</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="42" t="s">
+      <c r="D21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="29"/>
       <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="40" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="41"/>
-      <c r="F22" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="29"/>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="54" t="s">
+      <c r="A23" s="44"/>
+      <c r="B23" s="23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="29"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
       <c r="I24" s="29"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="52" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A26" s="44"/>
+      <c r="B26" s="23">
+        <v>6</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="42" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="23"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="52" t="s">
+      <c r="G26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A27" s="44"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="42" t="s">
+      <c r="E27" s="41"/>
+      <c r="F27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33"/>
       <c r="I27" s="29"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1">
-      <c r="A28" s="53"/>
+    <row r="28" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A28" s="44"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="29"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="25">
-        <v>3</v>
-      </c>
-      <c r="C29" s="30" t="s">
+    <row r="29" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A29" s="44"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="42" t="s">
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1">
+      <c r="A31" s="44"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="31"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="45" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="42" t="s">
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1">
+      <c r="A32" s="44"/>
+      <c r="B32" s="23">
+        <v>7</v>
+      </c>
+      <c r="C32" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="45" t="s">
+      <c r="D32" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="42" t="s">
+      <c r="E32" s="41"/>
+      <c r="F32" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="45" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1">
+      <c r="A33" s="44"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="42" t="s">
+      <c r="E33" s="41"/>
+      <c r="F33" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
       <c r="I33" s="29"/>
       <c r="J33" s="30"/>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+    <row r="34" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A34" s="44"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="35"/>
-      <c r="B35" s="29">
-        <v>4</v>
-      </c>
-      <c r="C35" s="29" t="s">
+    <row r="35" spans="1:10" ht="21.95" customHeight="1">
+      <c r="A35" s="44"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="32" t="s">
         <v>86</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="32" t="s">
-        <v>88</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="33"/>
       <c r="I35" s="29"/>
-      <c r="J35" s="60"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="23">
-        <v>5</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="33"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="41"/>
       <c r="F36" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="33"/>
       <c r="I36" s="29"/>
-      <c r="J36" s="62"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="59"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="41"/>
       <c r="F37" s="32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="33"/>
       <c r="I37" s="29"/>
-      <c r="J37" s="35"/>
-    </row>
-    <row r="38" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A38" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="59"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="51">
+        <v>8</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="41"/>
       <c r="F38" s="32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-    </row>
-    <row r="39" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-    </row>
-    <row r="40" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A40" s="64" t="s">
+      <c r="I38" s="29"/>
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1">
+      <c r="A39" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="48">
+        <v>9</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="57"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-    </row>
-    <row r="41" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A41" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42" spans="1:10" ht="9.9499999999999993" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+    </row>
+    <row r="43" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A43" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+    </row>
+    <row r="44" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+    </row>
+    <row r="45" spans="1:10" ht="9.9499999999999993" customHeight="1">
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
+  <mergeCells count="107">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="F38:H38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="J30:J34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J32:J37"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:H34"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:H30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="J26:J31"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="J25:J29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J18:J25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A16:A35"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="A16:A38"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:H14"/>
@@ -2324,7 +2435,7 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.1417322834645669" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
